--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/CWX/cwx.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/CWX/cwx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CWX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CWX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922E3704-F9BD-4A63-AA31-F3E0EB632AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB66DFE-5C13-4735-A277-98690C84FA5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CWX MPT Stats" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Confirms with Ultimus</t>
+  </si>
+  <si>
+    <t>2021 YTD</t>
   </si>
 </sst>
 </file>
@@ -690,11 +693,11 @@
     <xf numFmtId="2" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1012,25 +1015,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V185"/>
+  <dimension ref="A1:V188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="5"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="5"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,10 +1060,10 @@
         <v>26</v>
       </c>
       <c r="K1" s="41">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>38701</v>
       </c>
@@ -1074,13 +1077,13 @@
         <v>7</v>
       </c>
       <c r="K2" s="61">
-        <v>7.2300000000000001E-4</v>
-      </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>38717</v>
       </c>
@@ -1111,8 +1114,8 @@
         <v>6</v>
       </c>
       <c r="K3" s="11">
-        <f>COUNTA(A4:A344)+0.5</f>
-        <v>180.5</v>
+        <f>COUNTA(A4:A347)+0.5</f>
+        <v>183.5</v>
       </c>
       <c r="P3" s="17"/>
       <c r="Q3" s="18"/>
@@ -1124,7 +1127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>38748</v>
       </c>
@@ -1155,18 +1158,18 @@
         <v>15</v>
       </c>
       <c r="Q4" s="62">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="R4" s="21">
-        <f t="shared" ref="R4:R10" si="1">SUMIF($A$2:$A$259,$Q4,$B$2:$B$259)</f>
-        <v>33632</v>
+        <f t="shared" ref="R4:R10" si="1">SUMIF($A$2:$A$262,$Q4,$B$2:$B$262)</f>
+        <v>34806</v>
       </c>
       <c r="S4" s="22">
-        <f t="shared" ref="S4:S10" si="2">SUMIF($A$2:$A$259,$Q4,$E$2:$E$259)</f>
-        <v>34118.14354444528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" ref="S4:S10" si="2">SUMIF($A$2:$A$262,$Q4,$E$2:$E$262)</f>
+        <v>40395.481716315146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>38776</v>
       </c>
@@ -1206,18 +1209,18 @@
       </c>
       <c r="Q5" s="31">
         <f>EOMONTH(Q10,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="R5" s="21">
         <f t="shared" si="1"/>
-        <v>33632</v>
+        <v>34084</v>
       </c>
       <c r="S5" s="22">
         <f t="shared" si="2"/>
-        <v>34118.14354444528</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>27431.662737163268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>38807</v>
       </c>
@@ -1248,30 +1251,30 @@
         <v>5</v>
       </c>
       <c r="K6" s="10">
-        <f>STDEV(C3:C183)*SQRT(12)</f>
-        <v>0.13406686566925038</v>
+        <f>STDEV(C3:C186)*SQRT(12)</f>
+        <v>0.13304096464870924</v>
       </c>
       <c r="L6" s="10">
-        <f>STDEV(F3:F183)*SQRT(12)</f>
-        <v>0.15090099708435403</v>
+        <f>STDEV(F3:F186)*SQRT(12)</f>
+        <v>0.15008220094324742</v>
       </c>
       <c r="P6" s="20" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="31">
         <f>EOMONTH(Q10,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="R6" s="21">
         <f t="shared" si="1"/>
-        <v>36205.49</v>
+        <v>35663.760000000002</v>
       </c>
       <c r="S6" s="22">
         <f t="shared" si="2"/>
-        <v>27137.833874169741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>26931.830895632287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>38837</v>
       </c>
@@ -1303,29 +1306,29 @@
       </c>
       <c r="K7" s="10">
         <f>R10/B2-1</f>
-        <v>2.4805999999999999</v>
+        <v>2.5798999999999999</v>
       </c>
       <c r="L7" s="10">
         <f>S10/S9-1</f>
-        <v>3.0395481716315143</v>
+        <v>3.2889851367734151</v>
       </c>
       <c r="P7" s="20" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="31">
         <f>EOMONTH(Q10,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="R7" s="21">
         <f t="shared" si="1"/>
-        <v>44287.1</v>
+        <v>44613.04</v>
       </c>
       <c r="S7" s="22">
         <f t="shared" si="2"/>
-        <v>19895.400120766546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>20163.563209582928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>38868</v>
       </c>
@@ -1357,29 +1360,29 @@
       </c>
       <c r="K8" s="10">
         <f>(1+K7)^(12/$K$3)-1</f>
-        <v>8.6451255007189642E-2</v>
+        <v>8.6977213586493463E-2</v>
       </c>
       <c r="L8" s="10">
         <f>(1+L7)^(12/$K$3)-1</f>
-        <v>9.7261682059554433E-2</v>
+        <v>9.9899198383527787E-2</v>
       </c>
       <c r="P8" s="20" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="31">
         <f>EOMONTH(Q10,-120)</f>
-        <v>40543</v>
+        <v>40633</v>
       </c>
       <c r="R8" s="21">
         <f t="shared" si="1"/>
-        <v>30557.77</v>
+        <v>30996.02</v>
       </c>
       <c r="S8" s="22">
         <f t="shared" si="2"/>
-        <v>11007.077015212344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>11658.612844475985</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>38898</v>
       </c>
@@ -1412,7 +1415,7 @@
       <c r="J9" s="35"/>
       <c r="K9" s="36">
         <f>((K8-K2)-K10*(L8-K2))*100</f>
-        <v>10.711046105266687</v>
+        <v>10.861865122707751</v>
       </c>
       <c r="L9" s="37"/>
       <c r="P9" s="20" t="s">
@@ -1431,7 +1434,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>38929</v>
       </c>
@@ -1463,8 +1466,8 @@
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="38">
-        <f>COVAR(C3:C183,F3:F183)/VAR(F3:F183)</f>
-        <v>-0.22148848098305937</v>
+        <f>COVAR(C3:C186,F3:F186)/VAR(F3:F186)</f>
+        <v>-0.21879218463146138</v>
       </c>
       <c r="L10" s="38"/>
       <c r="P10" s="16" t="s">
@@ -1472,18 +1475,18 @@
       </c>
       <c r="Q10" s="32">
         <f>K1</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="R10" s="24">
         <f t="shared" si="1"/>
-        <v>34806</v>
+        <v>35799</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="2"/>
-        <v>40395.481716315146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>42889.851367734154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>38960</v>
       </c>
@@ -1515,12 +1518,12 @@
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="39">
-        <f>RSQ(C3:C183,F3:F183)</f>
-        <v>6.284283013141323E-2</v>
+        <f>RSQ(C3:C186,F3:F186)</f>
+        <v>6.1586381165466358E-2</v>
       </c>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>38990</v>
       </c>
@@ -1553,11 +1556,11 @@
       <c r="J12" s="35"/>
       <c r="K12" s="40">
         <f>K14/$K$3</f>
-        <v>0.70914127423822715</v>
+        <v>0.70844686648501365</v>
       </c>
       <c r="L12" s="40">
         <f>L14/$K$3</f>
-        <v>0.68698060941828254</v>
+        <v>0.68664850136239786</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="33"/>
@@ -1569,7 +1572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>39021</v>
       </c>
@@ -1601,11 +1604,11 @@
       </c>
       <c r="K13" s="11">
         <f>(K8-K2)/K6</f>
-        <v>0.63944401608288137</v>
+        <v>0.65243223255098071</v>
       </c>
       <c r="L13" s="11">
         <f>(L8-K2)/L6</f>
-        <v>0.63974847035363902</v>
+        <v>0.66445053281992494</v>
       </c>
       <c r="P13" s="20" t="s">
         <v>15</v>
@@ -1613,14 +1616,14 @@
       <c r="Q13" s="55"/>
       <c r="R13" s="56">
         <f>R10/R4-1</f>
-        <v>3.4907231208372913E-2</v>
+        <v>2.8529563868298524E-2</v>
       </c>
       <c r="S13" s="57">
         <f>S10/S4-1</f>
-        <v>0.18398826898926823</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>6.1748728952811804E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>39051</v>
       </c>
@@ -1651,12 +1654,12 @@
         <v>9</v>
       </c>
       <c r="K14" s="5">
-        <f>COUNTIF(C3:C1174,"&gt;0")</f>
-        <v>128</v>
+        <f>COUNTIF(C3:C1177,"&gt;0")</f>
+        <v>130</v>
       </c>
       <c r="L14" s="5">
-        <f>COUNTIF(F3:F1174,"&gt;0")</f>
-        <v>124</v>
+        <f>COUNTIF(F3:F1177,"&gt;0")</f>
+        <v>126</v>
       </c>
       <c r="P14" s="20" t="s">
         <v>30</v>
@@ -1664,14 +1667,14 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10">
         <f>R10/R5-1</f>
-        <v>3.4907231208372913E-2</v>
+        <v>5.0316864217814894E-2</v>
       </c>
       <c r="S14" s="26">
         <f>S10/S5-1</f>
-        <v>0.18398826898926823</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.56351628330676373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>39082</v>
       </c>
@@ -1702,11 +1705,11 @@
         <v>10</v>
       </c>
       <c r="K15" s="12">
-        <f>MIN(D3:D183)</f>
+        <f>MIN(D3:D186)</f>
         <v>-0.32895800560227717</v>
       </c>
       <c r="L15" s="12">
-        <f>MIN(G3:G183)</f>
+        <f>MIN(G3:G186)</f>
         <v>-0.50948767777791537</v>
       </c>
       <c r="P15" s="20" t="s">
@@ -1715,14 +1718,14 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10">
         <f>POWER($R$10/R6,12/36)-1</f>
-        <v>-1.3054369185098613E-2</v>
+        <v>1.2624338361861831E-3</v>
       </c>
       <c r="S15" s="26">
         <f>POWER($S$10/S6,12/36)-1</f>
-        <v>0.14178904188562003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.1677849863795664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>39113</v>
       </c>
@@ -1755,14 +1758,14 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10">
         <f>POWER($R$10/R7,12/60)-1</f>
-        <v>-4.7038457711555348E-2</v>
+        <v>-4.306637431327287E-2</v>
       </c>
       <c r="S16" s="26">
         <f>POWER($S$10/S7,12/60)-1</f>
-        <v>0.15216856682869984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>0.16294038412866541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>39141</v>
       </c>
@@ -1795,14 +1798,14 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10">
         <f>POWER($R$10/R8,12/120)-1</f>
-        <v>1.3102170518970446E-2</v>
+        <v>1.4510383265066151E-2</v>
       </c>
       <c r="S17" s="26">
         <f>POWER($S$10/S8,12/120)-1</f>
-        <v>0.13884882650942365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.13912338106903843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>39172</v>
       </c>
@@ -1853,14 +1856,14 @@
       <c r="Q18" s="29"/>
       <c r="R18" s="29">
         <f>POWER($R$10/R9,12/$K$3)-1</f>
-        <v>8.6451255007189642E-2</v>
+        <v>8.6977213586493463E-2</v>
       </c>
       <c r="S18" s="30">
         <f>POWER($S$10/S9,12/$K$3)-1</f>
-        <v>9.7261682059554433E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.9899198383527787E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>39202</v>
       </c>
@@ -1892,25 +1895,25 @@
       </c>
       <c r="J19" s="50">
         <f>R14*100</f>
-        <v>3.4907231208372913</v>
+        <v>5.0316864217814894</v>
       </c>
       <c r="K19" s="50">
         <f>R15*100</f>
-        <v>-1.3054369185098613</v>
+        <v>0.12624338361861831</v>
       </c>
       <c r="L19" s="50">
         <f>R16*100</f>
-        <v>-4.7038457711555353</v>
+        <v>-4.306637431327287</v>
       </c>
       <c r="M19" s="50">
         <f>R17*100</f>
-        <v>1.3102170518970446</v>
-      </c>
-      <c r="N19" s="80">
-        <v>8.64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1.4510383265066151</v>
+      </c>
+      <c r="N19" s="79">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>39233</v>
       </c>
@@ -1941,19 +1944,19 @@
         <v>25</v>
       </c>
       <c r="J20" s="51">
-        <v>-2.41</v>
+        <v>-1</v>
       </c>
       <c r="K20" s="51">
-        <v>-3.24</v>
+        <v>-1.82</v>
       </c>
       <c r="L20" s="51">
-        <v>-5.82</v>
+        <v>-5.44</v>
       </c>
       <c r="M20" s="51">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="N20" s="51">
-        <v>8.23</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="P20" s="17"/>
       <c r="Q20" s="18" t="s">
@@ -1973,7 +1976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>39263</v>
       </c>
@@ -2005,38 +2008,38 @@
       </c>
       <c r="J21" s="52">
         <f>S14*100</f>
-        <v>18.398826898926824</v>
+        <v>56.351628330676377</v>
       </c>
       <c r="K21" s="52">
         <f>S15*100</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956641</v>
       </c>
       <c r="L21" s="52">
         <f>S16*100</f>
-        <v>15.216856682869984</v>
+        <v>16.294038412866541</v>
       </c>
       <c r="M21" s="52">
         <f>S17*100</f>
-        <v>13.884882650942366</v>
+        <v>13.912338106903842</v>
       </c>
       <c r="N21" s="78">
-        <v>9.7200000000000006</v>
+        <v>9.99</v>
       </c>
       <c r="P21" s="65">
         <v>38717</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21:Q36" si="4">VLOOKUP(P21,A:B,2,0)</f>
+        <f t="shared" ref="Q21:Q37" si="4">VLOOKUP(P21,A:B,2,0)</f>
         <v>10318.73</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21:R36" si="5">VLOOKUP(P21,A:E,5,0)</f>
+        <f t="shared" ref="R21:R37" si="5">VLOOKUP(P21,A:E,5,0)</f>
         <v>9828.69</v>
       </c>
       <c r="S21" s="20"/>
       <c r="U21" s="66"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>39294</v>
       </c>
@@ -2067,19 +2070,19 @@
         <v>23</v>
       </c>
       <c r="J22" s="53">
-        <v>2.82</v>
+        <v>4.18</v>
       </c>
       <c r="K22" s="53">
-        <v>-2.02</v>
+        <v>-0.66</v>
       </c>
       <c r="L22" s="53">
-        <v>-5.41</v>
+        <v>-5.03</v>
       </c>
       <c r="M22" s="47" t="s">
         <v>22</v>
       </c>
       <c r="N22" s="53">
-        <v>-2.5499999999999998</v>
+        <v>-2.14</v>
       </c>
       <c r="P22" s="65">
         <f>EOMONTH(P21,12)</f>
@@ -2105,7 +2108,7 @@
         <v>0.15794463807112491</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>39325</v>
       </c>
@@ -2136,19 +2139,19 @@
         <v>24</v>
       </c>
       <c r="J23" s="51">
-        <v>3.7</v>
+        <v>5.21</v>
       </c>
       <c r="K23" s="51">
-        <v>-1.04</v>
+        <v>0.33</v>
       </c>
       <c r="L23" s="51">
-        <v>-4.46</v>
+        <v>-4.08</v>
       </c>
       <c r="M23" s="48" t="s">
         <v>22</v>
       </c>
       <c r="N23" s="51">
-        <v>-1.59</v>
+        <v>-1.17</v>
       </c>
       <c r="P23" s="65">
         <f t="shared" ref="P23:P33" si="7">EOMONTH(P22,12)</f>
@@ -2174,7 +2177,7 @@
         <v>5.493726356621087E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>39355</v>
       </c>
@@ -2206,21 +2209,21 @@
       </c>
       <c r="J24" s="54">
         <f>J21</f>
-        <v>18.398826898926824</v>
+        <v>56.351628330676377</v>
       </c>
       <c r="K24" s="54">
         <f>K21</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956641</v>
       </c>
       <c r="L24" s="54">
         <f>L21</f>
-        <v>15.216856682869984</v>
+        <v>16.294038412866541</v>
       </c>
       <c r="M24" s="49" t="s">
         <v>22</v>
       </c>
       <c r="N24" s="60">
-        <v>14.31</v>
+        <v>14.71</v>
       </c>
       <c r="P24" s="65">
         <f t="shared" si="7"/>
@@ -2246,7 +2249,7 @@
         <v>-0.36997610819389204</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>39386</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>0.26464232129829668</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>39416</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>0.15063401360544204</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>39447</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>2.1118200436079926E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>39478</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>0.16003223804274347</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>39507</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>0.32388478062960213</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>39538</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>0.13688363157085148</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>39568</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>1.383759921898231E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>39599</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>0.11959912078710522</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>39629</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>0.21831601482707241</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>39660</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>-4.3842417452558569E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>39691</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>0.31486370986834422</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>39721</v>
       </c>
@@ -2827,34 +2830,30 @@
         <f>(E36-(MAX($E$2:E36)))/(MAX($E$2:E36))</f>
         <v>-0.23197465001423451</v>
       </c>
-      <c r="P36" s="67">
-        <f>K1</f>
+      <c r="P36" s="65">
         <v>44196</v>
       </c>
-      <c r="Q36" s="68">
+      <c r="Q36">
         <f t="shared" si="4"/>
         <v>34806</v>
       </c>
-      <c r="R36" s="68">
+      <c r="R36">
         <f t="shared" si="5"/>
         <v>40395.481716315146</v>
       </c>
-      <c r="S36" s="16">
+      <c r="S36" s="20">
         <v>2020</v>
       </c>
-      <c r="T36" s="70">
+      <c r="T36" s="73">
         <f t="shared" si="6"/>
         <v>3.4907231208372913E-2</v>
       </c>
-      <c r="U36" s="71">
+      <c r="U36" s="69">
         <f t="shared" si="6"/>
         <v>0.18398826898926823</v>
       </c>
-      <c r="V36" s="76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>39752</v>
       </c>
@@ -2880,8 +2879,34 @@
         <f>(E37-(MAX($E$2:E37)))/(MAX($E$2:E37))</f>
         <v>-0.36096498285657691</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P37" s="67">
+        <f>K1</f>
+        <v>44286</v>
+      </c>
+      <c r="Q37" s="68">
+        <f t="shared" si="4"/>
+        <v>35799</v>
+      </c>
+      <c r="R37" s="68">
+        <f t="shared" si="5"/>
+        <v>42889.851367734154</v>
+      </c>
+      <c r="S37" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="T37" s="70">
+        <f>Q37/Q36-1</f>
+        <v>2.8529563868298524E-2</v>
+      </c>
+      <c r="U37" s="71">
+        <f>R37/R36-1</f>
+        <v>6.1748728952811804E-2</v>
+      </c>
+      <c r="V37" s="76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>39782</v>
       </c>
@@ -2908,7 +2933,7 @@
         <v>-0.40681693464869378</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>39813</v>
       </c>
@@ -2935,7 +2960,7 @@
         <v>-0.40050419405282062</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39844</v>
       </c>
@@ -2962,7 +2987,7 @@
         <v>-0.45103500063952595</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>39872</v>
       </c>
@@ -2989,7 +3014,7 @@
         <v>-0.50948767777791537</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>39903</v>
       </c>
@@ -3016,7 +3041,7 @@
         <v>-0.46651978198352084</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>39933</v>
       </c>
@@ -3043,7 +3068,7 @@
         <v>-0.41546085069336997</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>39964</v>
       </c>
@@ -3070,7 +3095,7 @@
         <v>-0.38276663077069067</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>39994</v>
       </c>
@@ -3097,7 +3122,7 @@
         <v>-0.38154121641972694</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>40025</v>
       </c>
@@ -3124,7 +3149,7 @@
         <v>-0.33476504639658028</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>40056</v>
       </c>
@@ -3151,7 +3176,7 @@
         <v>-0.31074775031254248</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>40086</v>
       </c>
@@ -3178,7 +3203,7 @@
         <v>-0.28502642686504359</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>40117</v>
       </c>
@@ -3205,7 +3230,7 @@
         <v>-0.29830793796185123</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>40147</v>
       </c>
@@ -3232,7 +3257,7 @@
         <v>-0.25621887468178434</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>40178</v>
       </c>
@@ -3259,7 +3284,7 @@
         <v>-0.24185223235836578</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>40209</v>
       </c>
@@ -3286,7 +3311,7 @@
         <v>-0.26912492212223627</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>40237</v>
       </c>
@@ -3313,7 +3338,7 @@
         <v>-0.24648570143625179</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>40268</v>
       </c>
@@ -3340,7 +3365,7 @@
         <v>-0.2010133392747365</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>40298</v>
       </c>
@@ -3367,7 +3392,7 @@
         <v>-0.18840023600572706</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>40329</v>
       </c>
@@ -3394,7 +3419,7 @@
         <v>-0.25320691348244628</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>40359</v>
       </c>
@@ -3421,7 +3446,7 @@
         <v>-0.29230051946015778</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>40390</v>
       </c>
@@ -3448,7 +3473,7 @@
         <v>-0.2427186869499563</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>40421</v>
       </c>
@@ -3475,7 +3500,7 @@
         <v>-0.27690238357532199</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>40451</v>
       </c>
@@ -3502,7 +3527,7 @@
         <v>-0.21237214637306256</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>40482</v>
       </c>
@@ -3529,7 +3554,7 @@
         <v>-0.18240106945252479</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>40512</v>
       </c>
@@ -3556,7 +3581,7 @@
         <v>-0.18229792009638307</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>40543</v>
       </c>
@@ -3583,7 +3608,7 @@
         <v>-0.12764939121250038</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>40574</v>
       </c>
@@ -3610,7 +3635,7 @@
         <v>-0.10697413426745424</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>40602</v>
       </c>
@@ -3637,7 +3662,7 @@
         <v>-7.6380035235820362E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>40633</v>
       </c>
@@ -3664,7 +3689,7 @@
         <v>-7.6012823527955936E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>40663</v>
       </c>
@@ -3691,7 +3716,7 @@
         <v>-4.8649362330680831E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>40694</v>
       </c>
@@ -3718,7 +3743,7 @@
         <v>-5.9418155111876494E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>40724</v>
       </c>
@@ -3745,7 +3770,7 @@
         <v>-7.5096857245417814E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>40755</v>
       </c>
@@ -3772,7 +3797,7 @@
         <v>-9.3903047857175889E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40786</v>
       </c>
@@ -3799,7 +3824,7 @@
         <v>-0.143125920608004</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40816</v>
       </c>
@@ -3826,7 +3851,7 @@
         <v>-0.20336101862052236</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40847</v>
       </c>
@@ -3853,7 +3878,7 @@
         <v>-0.1162947100884202</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40877</v>
       </c>
@@ -3880,7 +3905,7 @@
         <v>-0.11824629590662143</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40908</v>
       </c>
@@ -3907,7 +3932,7 @@
         <v>-0.10922691620558958</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40939</v>
       </c>
@@ -3934,7 +3959,7 @@
         <v>-6.9308115378744442E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40968</v>
       </c>
@@ -3961,7 +3986,7 @@
         <v>-2.9063362586491302E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40999</v>
       </c>
@@ -3988,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>41029</v>
       </c>
@@ -4015,7 +4040,7 @@
         <v>-6.2739902989709696E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>41060</v>
       </c>
@@ -4042,7 +4067,7 @@
         <v>-6.5998263853176115E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>41090</v>
       </c>
@@ -4069,7 +4094,7 @@
         <v>-2.7515047291487474E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>41121</v>
       </c>
@@ -4096,7 +4121,7 @@
         <v>-1.4008483257702547E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>41152</v>
       </c>
@@ -4123,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>41182</v>
       </c>
@@ -4150,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>41213</v>
       </c>
@@ -4177,7 +4202,7 @@
         <v>-1.8465112393741913E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>41243</v>
       </c>
@@ -4204,7 +4229,7 @@
         <v>-1.2772829792396698E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>41274</v>
       </c>
@@ -4231,7 +4256,7 @@
         <v>-3.7749658900606249E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>41305</v>
       </c>
@@ -4258,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>41333</v>
       </c>
@@ -4285,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>41364</v>
       </c>
@@ -4312,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>41394</v>
       </c>
@@ -4339,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>41425</v>
       </c>
@@ -4366,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>41455</v>
       </c>
@@ -4393,7 +4418,7 @@
         <v>-1.3428114595806825E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>41486</v>
       </c>
@@ -4420,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>41517</v>
       </c>
@@ -4447,7 +4472,7 @@
         <v>-2.8961318147223261E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>41547</v>
       </c>
@@ -4474,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>41578</v>
       </c>
@@ -4501,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>41608</v>
       </c>
@@ -4528,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>41639</v>
       </c>
@@ -4555,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>41670</v>
       </c>
@@ -4582,7 +4607,7 @@
         <v>-3.4576048305128324E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>41698</v>
       </c>
@@ -4609,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>41729</v>
       </c>
@@ -4636,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>41759</v>
       </c>
@@ -4663,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>41790</v>
       </c>
@@ -4690,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>41820</v>
       </c>
@@ -4717,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>41851</v>
       </c>
@@ -4744,7 +4769,7 @@
         <v>-1.3791530834586157E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>41882</v>
       </c>
@@ -4771,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>41912</v>
       </c>
@@ -4798,7 +4823,7 @@
         <v>-1.4022847167708762E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>41943</v>
       </c>
@@ -4825,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>41973</v>
       </c>
@@ -4852,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>42004</v>
       </c>
@@ -4879,7 +4904,7 @@
         <v>-2.519211634947169E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>42035</v>
       </c>
@@ -4906,7 +4931,7 @@
         <v>-3.2463958337743716E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>42063</v>
       </c>
@@ -4933,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>42094</v>
       </c>
@@ -4960,7 +4985,7 @@
         <v>-1.5815664102710011E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>42124</v>
       </c>
@@ -4987,7 +5012,7 @@
         <v>-6.3728203350902901E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>42155</v>
       </c>
@@ -5014,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>42185</v>
       </c>
@@ -5043,7 +5068,7 @@
       <c r="N117" s="13"/>
       <c r="O117" s="13"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>42216</v>
       </c>
@@ -5071,7 +5096,7 @@
       </c>
       <c r="O118" s="13"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>42247</v>
       </c>
@@ -5099,7 +5124,7 @@
       </c>
       <c r="O119" s="13"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>42277</v>
       </c>
@@ -5126,7 +5151,7 @@
         <v>-8.3584886287797103E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>42308</v>
       </c>
@@ -5153,7 +5178,7 @@
         <v>-6.2811232609478263E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>42338</v>
       </c>
@@ -5179,10 +5204,8 @@
         <f>(E122-(MAX($E$2:E122)))/(MAX($E$2:E122))</f>
         <v>-3.3266594794394895E-3</v>
       </c>
-      <c r="P122" s="13"/>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>42369</v>
       </c>
@@ -5210,9 +5233,8 @@
       </c>
       <c r="P123" s="13"/>
       <c r="Q123" s="13"/>
-      <c r="R123" s="13"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>42400</v>
       </c>
@@ -5242,7 +5264,7 @@
       <c r="Q124" s="13"/>
       <c r="R124" s="13"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>42429</v>
       </c>
@@ -5268,8 +5290,11 @@
         <f>(E125-(MAX($E$2:E125)))/(MAX($E$2:E125))</f>
         <v>-6.8981980594486528E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P125" s="13"/>
+      <c r="Q125" s="13"/>
+      <c r="R125" s="13"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>42460</v>
       </c>
@@ -5296,7 +5321,7 @@
         <v>-5.8242209559013023E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>42490</v>
       </c>
@@ -5323,7 +5348,7 @@
         <v>-1.9687868987114778E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>42521</v>
       </c>
@@ -5350,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>42551</v>
       </c>
@@ -5377,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>42582</v>
       </c>
@@ -5404,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>42613</v>
       </c>
@@ -5431,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>42643</v>
       </c>
@@ -5439,7 +5464,7 @@
         <v>49379.92</v>
       </c>
       <c r="C132" s="7">
-        <f t="shared" ref="C132:C183" si="10">B132/B131-1</f>
+        <f t="shared" ref="C132:C186" si="10">B132/B131-1</f>
         <v>3.3112576053575538E-3</v>
       </c>
       <c r="D132" s="7">
@@ -5458,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>42674</v>
       </c>
@@ -5474,7 +5499,7 @@
         <v>-1.6502659380573715E-3</v>
       </c>
       <c r="E133" s="58">
-        <f t="shared" ref="E133:E183" si="11">E132*(1+F133)</f>
+        <f t="shared" ref="E133:E186" si="11">E132*(1+F133)</f>
         <v>21063.062694841996</v>
       </c>
       <c r="F133" s="7">
@@ -5485,7 +5510,7 @@
         <v>-1.8240452699062888E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>42704</v>
       </c>
@@ -5512,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>42735</v>
       </c>
@@ -5539,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>42766</v>
       </c>
@@ -5566,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>42794</v>
       </c>
@@ -5593,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>42825</v>
       </c>
@@ -5620,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>42855</v>
       </c>
@@ -5647,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>42886</v>
       </c>
@@ -5674,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>42916</v>
       </c>
@@ -5701,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>42947</v>
       </c>
@@ -5728,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>42978</v>
       </c>
@@ -5755,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>43008</v>
       </c>
@@ -5782,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <f>EOMONTH(A144,1)</f>
         <v>43039</v>
@@ -5810,9 +5835,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <f t="shared" ref="A146:A183" si="12">EOMONTH(A145,1)</f>
+        <f t="shared" ref="A146:A186" si="12">EOMONTH(A145,1)</f>
         <v>43069</v>
       </c>
       <c r="B146" s="63">
@@ -5838,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <f t="shared" si="12"/>
         <v>43100</v>
@@ -5866,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <f t="shared" si="12"/>
         <v>43131</v>
@@ -5894,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <f t="shared" si="12"/>
         <v>43159</v>
@@ -5922,7 +5947,7 @@
         <v>-3.6855790289246793E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <f t="shared" si="12"/>
         <v>43190</v>
@@ -5950,7 +5975,7 @@
         <v>-6.133317365877921E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <f t="shared" si="12"/>
         <v>43220</v>
@@ -5978,7 +6003,7 @@
         <v>-5.7731423770823513E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <f t="shared" si="12"/>
         <v>43251</v>
@@ -6006,7 +6031,7 @@
         <v>-3.5039492234917501E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <f t="shared" si="12"/>
         <v>43281</v>
@@ -6034,7 +6059,7 @@
         <v>-2.9100687507824918E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <f t="shared" si="12"/>
         <v>43312</v>
@@ -6062,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <f t="shared" si="12"/>
         <v>43343</v>
@@ -6090,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <f t="shared" si="12"/>
         <v>43373</v>
@@ -6118,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <f t="shared" si="12"/>
         <v>43404</v>
@@ -6146,7 +6171,7 @@
         <v>-6.8350042162466068E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <f t="shared" si="12"/>
         <v>43434</v>
@@ -6174,7 +6199,7 @@
         <v>-4.9364786880012189E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <f t="shared" si="12"/>
         <v>43465</v>
@@ -6202,7 +6227,7 @@
         <v>-0.13519750425962362</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <f t="shared" si="12"/>
         <v>43496</v>
@@ -6230,7 +6255,7 @@
         <v>-6.5896637760218882E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <f t="shared" si="12"/>
         <v>43524</v>
@@ -6258,7 +6283,7 @@
         <v>-3.5904029204881997E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <f t="shared" si="12"/>
         <v>43555</v>
@@ -6286,7 +6311,7 @@
         <v>-1.717036065391743E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <f t="shared" si="12"/>
         <v>43585</v>
@@ -6314,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <f t="shared" si="12"/>
         <v>43616</v>
@@ -6342,7 +6367,7 @@
         <v>-6.354802750682495E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <f t="shared" si="12"/>
         <v>43646</v>
@@ -6370,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <f t="shared" si="12"/>
         <v>43677</v>
@@ -6398,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <f t="shared" si="12"/>
         <v>43708</v>
@@ -6426,7 +6451,7 @@
         <v>-1.5841366088397351E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <f t="shared" si="12"/>
         <v>43738</v>
@@ -6454,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <f t="shared" si="12"/>
         <v>43769</v>
@@ -6482,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <f t="shared" si="12"/>
         <v>43799</v>
@@ -6510,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <f t="shared" si="12"/>
         <v>43830</v>
@@ -6538,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <f t="shared" si="12"/>
         <v>43861</v>
@@ -6566,7 +6591,7 @@
         <v>-3.9215267403866917E-4</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <f t="shared" si="12"/>
         <v>43890</v>
@@ -6594,7 +6619,7 @@
         <v>-8.2678601128850365E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <f t="shared" si="12"/>
         <v>43921</v>
@@ -6622,7 +6647,7 @@
         <v>-0.19598020620821932</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <f t="shared" si="12"/>
         <v>43951</v>
@@ -6650,7 +6675,7 @@
         <v>-9.2909666029354937E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <f t="shared" si="12"/>
         <v>43982</v>
@@ -6678,7 +6703,7 @@
         <v>-4.9707258791772888E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <f t="shared" si="12"/>
         <v>44012</v>
@@ -6706,7 +6731,7 @@
         <v>-3.0807636143353821E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <f t="shared" si="12"/>
         <v>44043</v>
@@ -6734,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <f t="shared" si="12"/>
         <v>44074</v>
@@ -6762,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <f t="shared" si="12"/>
         <v>44104</v>
@@ -6790,7 +6815,7 @@
         <v>-3.7997194147475585E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <f t="shared" si="12"/>
         <v>44135</v>
@@ -6818,7 +6843,7 @@
         <v>-6.357939464218447E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <f t="shared" si="12"/>
         <v>44165</v>
@@ -6846,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <f t="shared" si="12"/>
         <v>44196</v>
@@ -6874,18 +6899,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B184" s="34"/>
-      <c r="C184" s="34"/>
-      <c r="D184" s="34"/>
-      <c r="E184" s="34"/>
-      <c r="F184" s="7"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B185" s="34"/>
-      <c r="C185" s="34"/>
-      <c r="D185" s="34"/>
-      <c r="E185" s="34"/>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <f t="shared" si="12"/>
+        <v>44227</v>
+      </c>
+      <c r="B184" s="77">
+        <v>34716</v>
+      </c>
+      <c r="C184" s="7">
+        <f t="shared" si="10"/>
+        <v>-2.5857610756766514E-3</v>
+      </c>
+      <c r="D184" s="7">
+        <f>(B184-(MAX($B$2:B184)))/(MAX($B$2:B184))</f>
+        <v>-0.29696119394280102</v>
+      </c>
+      <c r="E184" s="58">
+        <f t="shared" si="11"/>
+        <v>39987.640590749717</v>
+      </c>
+      <c r="F184" s="64">
+        <v>-1.009620651214338E-2</v>
+      </c>
+      <c r="G184" s="7">
+        <f>(E184-(MAX($E$2:E184)))/(MAX($E$2:E184))</f>
+        <v>-1.0096206512143342E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <f t="shared" si="12"/>
+        <v>44255</v>
+      </c>
+      <c r="B185" s="77">
+        <v>35483</v>
+      </c>
+      <c r="C185" s="7">
+        <f t="shared" si="10"/>
+        <v>2.2093559165802468E-2</v>
+      </c>
+      <c r="D185" s="7">
+        <f>(B185-(MAX($B$2:B185)))/(MAX($B$2:B185))</f>
+        <v>-0.28142856448532111</v>
+      </c>
+      <c r="E185" s="58">
+        <f t="shared" si="11"/>
+        <v>41090.279732883471</v>
+      </c>
+      <c r="F185" s="64">
+        <v>2.7574498666190994E-2</v>
+      </c>
+      <c r="G185" s="7">
+        <f>(E185-(MAX($E$2:E185)))/(MAX($E$2:E185))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <f t="shared" si="12"/>
+        <v>44286</v>
+      </c>
+      <c r="B186" s="77">
+        <v>35799</v>
+      </c>
+      <c r="C186" s="7">
+        <f t="shared" si="10"/>
+        <v>8.9056731392498367E-3</v>
+      </c>
+      <c r="D186" s="7">
+        <f>(B186-(MAX($B$2:B186)))/(MAX($B$2:B186))</f>
+        <v>-0.27502920215342591</v>
+      </c>
+      <c r="E186" s="58">
+        <f t="shared" si="11"/>
+        <v>42889.851367734154</v>
+      </c>
+      <c r="F186" s="64">
+        <v>4.3795555701961586E-2</v>
+      </c>
+      <c r="G186" s="7">
+        <f>(E186-(MAX($E$2:E186)))/(MAX($E$2:E186))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B187" s="34"/>
+      <c r="C187" s="34"/>
+      <c r="D187" s="34"/>
+      <c r="E187" s="34"/>
+      <c r="F187" s="7"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B188" s="34"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="34"/>
+      <c r="E188" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6898,22 +7007,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA83205-9DB6-41D4-953E-AB7D18E0829F}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="74"/>
-    <col min="3" max="3" width="16.109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="74"/>
+    <col min="3" max="3" width="16.140625" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6924,7 +7033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>'CWX MPT Stats'!A2</f>
         <v>38701</v>
@@ -6938,7 +7047,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>'CWX MPT Stats'!A3</f>
         <v>38717</v>
@@ -6952,7 +7061,7 @@
         <v>9828.69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>'CWX MPT Stats'!A4</f>
         <v>38748</v>
@@ -6966,7 +7075,7 @@
         <v>10088.939908948378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>'CWX MPT Stats'!A5</f>
         <v>38776</v>
@@ -6980,7 +7089,7 @@
         <v>10116.32367612318</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>'CWX MPT Stats'!A6</f>
         <v>38807</v>
@@ -6994,7 +7103,7 @@
         <v>10242.257768890959</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>'CWX MPT Stats'!A7</f>
         <v>38837</v>
@@ -7008,7 +7117,7 @@
         <v>10379.749269097532</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>'CWX MPT Stats'!A8</f>
         <v>38868</v>
@@ -7022,7 +7131,7 @@
         <v>10081.026729080371</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>'CWX MPT Stats'!A9</f>
         <v>38898</v>
@@ -7036,7 +7145,7 @@
         <v>10094.666552273904</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>'CWX MPT Stats'!A10</f>
         <v>38929</v>
@@ -7050,7 +7159,7 @@
         <v>10156.982843734439</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f>'CWX MPT Stats'!A11</f>
         <v>38960</v>
@@ -7064,7 +7173,7 @@
         <v>10398.595131677912</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f>'CWX MPT Stats'!A12</f>
         <v>38990</v>
@@ -7078,7 +7187,7 @@
         <v>10666.602039312687</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f>'CWX MPT Stats'!A13</f>
         <v>39021</v>
@@ -7092,7 +7201,7 @@
         <v>11014.157228778455</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f>'CWX MPT Stats'!A14</f>
         <v>39051</v>
@@ -7106,7 +7215,7 @@
         <v>11223.648253705092</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f>'CWX MPT Stats'!A15</f>
         <v>39082</v>
@@ -7120,7 +7229,7 @@
         <v>11381.078884763285</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f>'CWX MPT Stats'!A16</f>
         <v>39113</v>
@@ -7134,7 +7243,7 @@
         <v>11553.190546892378</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f>'CWX MPT Stats'!A17</f>
         <v>39141</v>
@@ -7148,7 +7257,7 @@
         <v>11327.196377109442</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f>'CWX MPT Stats'!A18</f>
         <v>39172</v>
@@ -7162,7 +7271,7 @@
         <v>11453.911375785245</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f>'CWX MPT Stats'!A19</f>
         <v>39202</v>
@@ -7176,7 +7285,7 @@
         <v>11961.239914033284</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f>'CWX MPT Stats'!A20</f>
         <v>39233</v>
@@ -7190,7 +7299,7 @@
         <v>12378.66015207051</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f>'CWX MPT Stats'!A21</f>
         <v>39263</v>
@@ -7204,7 +7313,7 @@
         <v>12173.021596290135</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f>'CWX MPT Stats'!A22</f>
         <v>39294</v>
@@ -7218,7 +7327,7 @@
         <v>11795.583740743878</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f>'CWX MPT Stats'!A23</f>
         <v>39325</v>
@@ -7232,7 +7341,7 @@
         <v>11972.380838321131</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f>'CWX MPT Stats'!A24</f>
         <v>39355</v>
@@ -7246,7 +7355,7 @@
         <v>12420.152285983662</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f>'CWX MPT Stats'!A25</f>
         <v>39386</v>
@@ -7260,7 +7369,7 @@
         <v>12617.72148071443</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f>'CWX MPT Stats'!A26</f>
         <v>39416</v>
@@ -7274,7 +7383,7 @@
         <v>12090.193509645434</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f>'CWX MPT Stats'!A27</f>
         <v>39447</v>
@@ -7288,7 +7397,7 @@
         <v>12006.324215123363</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f>'CWX MPT Stats'!A28</f>
         <v>39478</v>
@@ -7302,7 +7411,7 @@
         <v>11286.172786741105</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f>'CWX MPT Stats'!A29</f>
         <v>39507</v>
@@ -7316,7 +7425,7 @@
         <v>10919.511432725616</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f>'CWX MPT Stats'!A30</f>
         <v>39538</v>
@@ -7330,7 +7439,7 @@
         <v>10872.396776274671</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f>'CWX MPT Stats'!A31</f>
         <v>39568</v>
@@ -7344,7 +7453,7 @@
         <v>11401.903042310669</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f>'CWX MPT Stats'!A32</f>
         <v>39599</v>
@@ -7358,7 +7467,7 @@
         <v>11549.598379715459</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <f>'CWX MPT Stats'!A33</f>
         <v>39629</v>
@@ -7372,7 +7481,7 @@
         <v>10575.912833193854</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <f>'CWX MPT Stats'!A34</f>
         <v>39660</v>
@@ -7386,7 +7495,7 @@
         <v>10486.993680466543</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <f>'CWX MPT Stats'!A35</f>
         <v>39691</v>
@@ -7400,7 +7509,7 @@
         <v>10638.697668199202</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f>'CWX MPT Stats'!A36</f>
         <v>39721</v>
@@ -7414,7 +7523,7 @@
         <v>9690.7299562486114</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <f>'CWX MPT Stats'!A37</f>
         <v>39752</v>
@@ -7428,7 +7537,7 @@
         <v>8063.1658627392835</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <f>'CWX MPT Stats'!A38</f>
         <v>39782</v>
@@ -7442,7 +7551,7 @@
         <v>7484.6187056792078</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f>'CWX MPT Stats'!A39</f>
         <v>39813</v>
@@ -7456,7 +7565,7 @@
         <v>7564.2711082979349</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f>'CWX MPT Stats'!A40</f>
         <v>39844</v>
@@ -7470,7 +7579,7 @@
         <v>6926.6874645910366</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <f>'CWX MPT Stats'!A41</f>
         <v>39872</v>
@@ -7484,7 +7593,7 @@
         <v>6189.1478646567157</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <f>'CWX MPT Stats'!A42</f>
         <v>39903</v>
@@ -7498,7 +7607,7 @@
         <v>6731.3048064027462</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <f>'CWX MPT Stats'!A43</f>
         <v>39933</v>
@@ -7512,7 +7621,7 @@
         <v>7375.5521805248054</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <f>'CWX MPT Stats'!A44</f>
         <v>39964</v>
@@ -7526,7 +7635,7 @@
         <v>7788.0787415383975</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <f>'CWX MPT Stats'!A45</f>
         <v>39994</v>
@@ -7540,7 +7649,7 @@
         <v>7803.5406785173282</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <f>'CWX MPT Stats'!A46</f>
         <v>40025</v>
@@ -7554,7 +7663,7 @@
         <v>8393.7493638039359</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <f>'CWX MPT Stats'!A47</f>
         <v>40056</v>
@@ -7568,7 +7677,7 @@
         <v>8696.7929165121786</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <f>'CWX MPT Stats'!A48</f>
         <v>40086</v>
@@ -7582,7 +7691,7 @@
         <v>9021.3374118880893</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <f>'CWX MPT Stats'!A49</f>
         <v>40117</v>
@@ -7596,7 +7705,7 @@
         <v>8853.7550040255519</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <f>'CWX MPT Stats'!A50</f>
         <v>40147</v>
@@ -7610,7 +7719,7 @@
         <v>9384.823081877601</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <f>'CWX MPT Stats'!A51</f>
         <v>40178</v>
@@ -7624,7 +7733,7 @@
         <v>9566.0973733275405</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <f>'CWX MPT Stats'!A52</f>
         <v>40209</v>
@@ -7638,7 +7747,7 @@
         <v>9221.9781698570914</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <f>'CWX MPT Stats'!A53</f>
         <v>40237</v>
@@ -7652,7 +7761,7 @@
         <v>9507.6335510132722</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <f>'CWX MPT Stats'!A54</f>
         <v>40268</v>
@@ -7666,7 +7775,7 @@
         <v>10081.39115183745</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <f>'CWX MPT Stats'!A55</f>
         <v>40298</v>
@@ -7680,7 +7789,7 @@
         <v>10240.5397758933</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <f>'CWX MPT Stats'!A56</f>
         <v>40329</v>
@@ -7694,7 +7803,7 @@
         <v>9422.8271694015675</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <f>'CWX MPT Stats'!A57</f>
         <v>40359</v>
@@ -7708,7 +7817,7 @@
         <v>8929.554937498011</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <f>'CWX MPT Stats'!A58</f>
         <v>40390</v>
@@ -7722,7 +7831,7 @@
         <v>9555.1646906151655</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <f>'CWX MPT Stats'!A59</f>
         <v>40421</v>
@@ -7736,7 +7845,7 @@
         <v>9123.8443274150632</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <f>'CWX MPT Stats'!A60</f>
         <v>40451</v>
@@ -7750,7 +7859,7 @@
         <v>9938.0688875176093</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <f>'CWX MPT Stats'!A61</f>
         <v>40482</v>
@@ -7764,7 +7873,7 @@
         <v>10316.235588578023</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <f>'CWX MPT Stats'!A62</f>
         <v>40512</v>
@@ -7778,7 +7887,7 @@
         <v>10317.537098424735</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <f>'CWX MPT Stats'!A63</f>
         <v>40543</v>
@@ -7792,7 +7901,7 @@
         <v>11007.077015212344</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <f>'CWX MPT Stats'!A64</f>
         <v>40574</v>
@@ -7806,7 +7915,7 @@
         <v>11267.951648887143</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <f>'CWX MPT Stats'!A65</f>
         <v>40602</v>
@@ -7820,7 +7929,7 @@
         <v>11653.979469421694</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <f>'CWX MPT Stats'!A66</f>
         <v>40633</v>
@@ -7834,7 +7943,7 @@
         <v>11658.612844475985</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <f>'CWX MPT Stats'!A67</f>
         <v>40663</v>
@@ -7848,7 +7957,7 @@
         <v>12003.877376611539</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <f>'CWX MPT Stats'!A68</f>
         <v>40694</v>
@@ -7862,7 +7971,7 @@
         <v>11867.999748614884</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <f>'CWX MPT Stats'!A69</f>
         <v>40724</v>
@@ -7876,7 +7985,7 @@
         <v>11670.170251914777</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <f>'CWX MPT Stats'!A70</f>
         <v>40755</v>
@@ -7890,7 +7999,7 @@
         <v>11432.878976662387</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <f>'CWX MPT Stats'!A71</f>
         <v>40786</v>
@@ -7904,7 +8013,7 @@
         <v>10811.79847781179</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <f>'CWX MPT Stats'!A72</f>
         <v>40816</v>
@@ -7918,7 +8027,7 @@
         <v>10051.768787726298</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <f>'CWX MPT Stats'!A73</f>
         <v>40847</v>
@@ -7932,7 +8041,7 @@
         <v>11150.347219138313</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <f>'CWX MPT Stats'!A74</f>
         <v>40877</v>
@@ -7946,7 +8055,7 @@
         <v>11125.722652838538</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <f>'CWX MPT Stats'!A75</f>
         <v>40908</v>
@@ -7960,7 +8069,7 @@
         <v>11239.526673834967</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <f>'CWX MPT Stats'!A76</f>
         <v>40939</v>
@@ -7974,7 +8083,7 @@
         <v>11743.210984512212</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <f>'CWX MPT Stats'!A77</f>
         <v>40968</v>
@@ -7988,7 +8097,7 @@
         <v>12251.008066305067</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <f>'CWX MPT Stats'!A78</f>
         <v>40999</v>
@@ -8002,7 +8111,7 @@
         <v>12654.163756422338</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <f>'CWX MPT Stats'!A79</f>
         <v>41029</v>
@@ -8016,7 +8125,7 @@
         <v>12574.771655772955</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <f>'CWX MPT Stats'!A80</f>
         <v>41060</v>
@@ -8030,7 +8139,7 @@
         <v>11819.010917984679</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <f>'CWX MPT Stats'!A81</f>
         <v>41090</v>
@@ -8044,7 +8153,7 @@
         <v>12305.983842230151</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <f>'CWX MPT Stats'!A82</f>
         <v>41121</v>
@@ -8058,7 +8167,7 @@
         <v>12476.89811530027</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <f>'CWX MPT Stats'!A83</f>
         <v>41152</v>
@@ -8072,7 +8181,7 @@
         <v>12757.92012140216</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <f>'CWX MPT Stats'!A84</f>
         <v>41182</v>
@@ -8086,7 +8195,7 @@
         <v>13087.618595771048</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <f>'CWX MPT Stats'!A85</f>
         <v>41213</v>
@@ -8100,7 +8209,7 @@
         <v>12845.954247433709</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <f>'CWX MPT Stats'!A86</f>
         <v>41243</v>
@@ -8114,7 +8223,7 @@
         <v>12920.452671059458</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <f>'CWX MPT Stats'!A87</f>
         <v>41274</v>
@@ -8128,7 +8237,7 @@
         <v>13038.213281989889</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <f>'CWX MPT Stats'!A88</f>
         <v>41305</v>
@@ -8142,7 +8251,7 @@
         <v>13713.540711251411</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <f>'CWX MPT Stats'!A89</f>
         <v>41333</v>
@@ -8156,7 +8265,7 @@
         <v>13899.708679724989</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <f>'CWX MPT Stats'!A90</f>
         <v>41364</v>
@@ -8170,7 +8279,7 @@
         <v>14420.989403529769</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <f>'CWX MPT Stats'!A91</f>
         <v>41394</v>
@@ -8184,7 +8293,7 @@
         <v>14698.835725605682</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <f>'CWX MPT Stats'!A92</f>
         <v>41425</v>
@@ -8198,7 +8307,7 @@
         <v>15042.642566712921</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <f>'CWX MPT Stats'!A93</f>
         <v>41455</v>
@@ -8212,7 +8321,7 @@
         <v>14840.648238503338</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <f>'CWX MPT Stats'!A94</f>
         <v>41486</v>
@@ -8226,7 +8335,7 @@
         <v>15595.836311959063</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <f>'CWX MPT Stats'!A95</f>
         <v>41517</v>
@@ -8240,7 +8349,7 @@
         <v>15144.1603347564</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <f>'CWX MPT Stats'!A96</f>
         <v>41547</v>
@@ -8254,7 +8363,7 @@
         <v>15619.055247624392</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <f>'CWX MPT Stats'!A97</f>
         <v>41578</v>
@@ -8268,7 +8377,7 @@
         <v>16337.020139464177</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <f>'CWX MPT Stats'!A98</f>
         <v>41608</v>
@@ -8282,7 +8391,7 @@
         <v>16834.873686028153</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <f>'CWX MPT Stats'!A99</f>
         <v>41639</v>
@@ -8296,7 +8405,7 @@
         <v>17261.092130629149</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <f>'CWX MPT Stats'!A100</f>
         <v>41670</v>
@@ -8310,7 +8419,7 @@
         <v>16664.271775321246</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <f>'CWX MPT Stats'!A101</f>
         <v>41698</v>
@@ -8324,7 +8433,7 @@
         <v>17426.592122736947</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <f>'CWX MPT Stats'!A102</f>
         <v>41729</v>
@@ -8338,7 +8447,7 @@
         <v>17573.038010688895</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <f>'CWX MPT Stats'!A103</f>
         <v>41759</v>
@@ -8352,7 +8461,7 @@
         <v>17702.928693390673</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <f>'CWX MPT Stats'!A104</f>
         <v>41790</v>
@@ -8366,7 +8475,7 @@
         <v>18118.526817642505</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <f>'CWX MPT Stats'!A105</f>
         <v>41820</v>
@@ -8380,7 +8489,7 @@
         <v>18492.788989162786</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <f>'CWX MPT Stats'!A106</f>
         <v>41851</v>
@@ -8394,7 +8503,7 @@
         <v>18237.745119601252</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <f>'CWX MPT Stats'!A107</f>
         <v>41882</v>
@@ -8408,7 +8517,7 @@
         <v>18967.371539667569</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <f>'CWX MPT Stats'!A108</f>
         <v>41912</v>
@@ -8422,7 +8531,7 @@
         <v>18701.394987393662</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <f>'CWX MPT Stats'!A109</f>
         <v>41943</v>
@@ -8436,7 +8545,7 @@
         <v>19158.172883195431</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <f>'CWX MPT Stats'!A110</f>
         <v>41973</v>
@@ -8450,7 +8559,7 @@
         <v>19673.414601311477</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <f>'CWX MPT Stats'!A111</f>
         <v>42004</v>
@@ -8464,7 +8573,7 @@
         <v>19623.853106348713</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <f>'CWX MPT Stats'!A112</f>
         <v>42035</v>
@@ -8478,7 +8587,7 @@
         <v>19034.737689333342</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <f>'CWX MPT Stats'!A113</f>
         <v>42063</v>
@@ -8492,7 +8601,7 @@
         <v>20128.734806084933</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <f>'CWX MPT Stats'!A114</f>
         <v>42094</v>
@@ -8506,7 +8615,7 @@
         <v>19810.385497579366</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <f>'CWX MPT Stats'!A115</f>
         <v>42124</v>
@@ -8520,7 +8629,7 @@
         <v>20000.457995593075</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <f>'CWX MPT Stats'!A116</f>
         <v>42155</v>
@@ -8534,7 +8643,7 @@
         <v>20257.636341303212</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <f>'CWX MPT Stats'!A117</f>
         <v>42185</v>
@@ -8548,7 +8657,7 @@
         <v>19865.465394292187</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <f>'CWX MPT Stats'!A118</f>
         <v>42216</v>
@@ -8562,7 +8671,7 @@
         <v>20281.688243270441</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <f>'CWX MPT Stats'!A119</f>
         <v>42247</v>
@@ -8576,7 +8685,7 @@
         <v>19058.008685392542</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <f>'CWX MPT Stats'!A120</f>
         <v>42277</v>
@@ -8590,7 +8699,7 @@
         <v>18586.445637732129</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <f>'CWX MPT Stats'!A121</f>
         <v>42308</v>
@@ -8604,7 +8713,7 @@
         <v>20154.296459474343</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <f>'CWX MPT Stats'!A122</f>
         <v>42338</v>
@@ -8618,7 +8727,7 @@
         <v>20214.217972816929</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <f>'CWX MPT Stats'!A123</f>
         <v>42369</v>
@@ -8632,7 +8741,7 @@
         <v>19895.400120766546</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <f>'CWX MPT Stats'!A124</f>
         <v>42400</v>
@@ -8646,7 +8755,7 @@
         <v>18908.126811445276</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <f>'CWX MPT Stats'!A125</f>
         <v>42429</v>
@@ -8660,7 +8769,7 @@
         <v>18882.617218449734</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <f>'CWX MPT Stats'!A126</f>
         <v>42460</v>
@@ -8674,7 +8783,7 @@
         <v>20163.563209582928</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <f>'CWX MPT Stats'!A127</f>
         <v>42490</v>
@@ -8688,7 +8797,7 @@
         <v>20241.757921173339</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <f>'CWX MPT Stats'!A128</f>
         <v>42521</v>
@@ -8702,7 +8811,7 @@
         <v>20605.243591162849</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <f>'CWX MPT Stats'!A129</f>
         <v>42551</v>
@@ -8716,7 +8825,7 @@
         <v>20658.657555271882</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <f>'CWX MPT Stats'!A130</f>
         <v>42582</v>
@@ -8730,7 +8839,7 @@
         <v>21420.301117567295</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <f>'CWX MPT Stats'!A131</f>
         <v>42613</v>
@@ -8744,7 +8853,7 @@
         <v>21450.392025223256</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <f>'CWX MPT Stats'!A132</f>
         <v>42643</v>
@@ -8758,7 +8867,7 @@
         <v>21454.400675551129</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <f>'CWX MPT Stats'!A133</f>
         <v>42674</v>
@@ -8772,7 +8881,7 @@
         <v>21063.062694841996</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <f>'CWX MPT Stats'!A134</f>
         <v>42704</v>
@@ -8786,7 +8895,7 @@
         <v>21843.13563656684</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <f>'CWX MPT Stats'!A135</f>
         <v>42735</v>
@@ -8800,7 +8909,7 @@
         <v>22274.87248291789</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <f>'CWX MPT Stats'!A136</f>
         <v>42766</v>
@@ -8814,7 +8923,7 @@
         <v>22697.342579160359</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <f>'CWX MPT Stats'!A137</f>
         <v>42794</v>
@@ -8828,7 +8937,7 @@
         <v>23598.612117810953</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <f>'CWX MPT Stats'!A138</f>
         <v>42825</v>
@@ -8842,7 +8951,7 @@
         <v>23626.100005773493</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <f>'CWX MPT Stats'!A139</f>
         <v>42855</v>
@@ -8856,7 +8965,7 @@
         <v>23868.753501594332</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <f>'CWX MPT Stats'!A140</f>
         <v>42886</v>
@@ -8870,7 +8979,7 @@
         <v>24204.647162833568</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <f>'CWX MPT Stats'!A141</f>
         <v>42916</v>
@@ -8884,7 +8993,7 @@
         <v>24355.726425839806</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <f>'CWX MPT Stats'!A142</f>
         <v>42947</v>
@@ -8898,7 +9007,7 @@
         <v>24856.547414854293</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <f>'CWX MPT Stats'!A143</f>
         <v>42978</v>
@@ -8912,7 +9021,7 @@
         <v>24932.659710689968</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <f>'CWX MPT Stats'!A144</f>
         <v>43008</v>
@@ -8926,7 +9035,7 @@
         <v>25446.964341716379</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <f>'CWX MPT Stats'!A145</f>
         <v>43039</v>
@@ -8940,7 +9049,7 @@
         <v>26040.765194179905</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <f>'CWX MPT Stats'!A146</f>
         <v>43069</v>
@@ -8954,7 +9063,7 @@
         <v>26839.423696515783</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <f>'CWX MPT Stats'!A147</f>
         <v>43100</v>
@@ -8968,7 +9077,7 @@
         <v>27137.833874169741</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <f>'CWX MPT Stats'!A148</f>
         <v>43131</v>
@@ -8982,7 +9091,7 @@
         <v>28691.576329173611</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <f>'CWX MPT Stats'!A149</f>
         <v>43159</v>
@@ -8996,7 +9105,7 @@
         <v>27634.125608917671</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <f>'CWX MPT Stats'!A150</f>
         <v>43190</v>
@@ -9010,7 +9119,7 @@
         <v>26931.830895632287</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <f>'CWX MPT Stats'!A151</f>
         <v>43220</v>
@@ -9024,7 +9133,7 @@
         <v>27035.17077746116</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <f>'CWX MPT Stats'!A152</f>
         <v>43251</v>
@@ -9038,7 +9147,7 @@
         <v>27686.23806317999</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <f>'CWX MPT Stats'!A153</f>
         <v>43281</v>
@@ -9052,7 +9161,7 @@
         <v>27856.631732311424</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <f>'CWX MPT Stats'!A154</f>
         <v>43312</v>
@@ -9066,7 +9175,7 @@
         <v>28893.310355413851</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <f>'CWX MPT Stats'!A155</f>
         <v>43343</v>
@@ -9080,7 +9189,7 @@
         <v>29834.770518130888</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <f>'CWX MPT Stats'!A156</f>
         <v>43373</v>
@@ -9094,7 +9203,7 @@
         <v>30004.591522929772</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <f>'CWX MPT Stats'!A157</f>
         <v>43404</v>
@@ -9108,7 +9217,7 @@
         <v>27953.77642726995</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <f>'CWX MPT Stats'!A158</f>
         <v>43434</v>
@@ -9122,7 +9231,7 @@
         <v>28523.421256978523</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <f>'CWX MPT Stats'!A159</f>
         <v>43465</v>
@@ -9136,7 +9245,7 @@
         <v>25948.045632700207</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <f>'CWX MPT Stats'!A160</f>
         <v>43496</v>
@@ -9150,7 +9259,7 @@
         <v>28027.389824199934</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <f>'CWX MPT Stats'!A161</f>
         <v>43524</v>
@@ -9164,7 +9273,7 @@
         <v>28927.305792609946</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <f>'CWX MPT Stats'!A162</f>
         <v>43555</v>
@@ -9178,7 +9287,7 @@
         <v>29489.401865207594</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <f>'CWX MPT Stats'!A163</f>
         <v>43585</v>
@@ -9192,7 +9301,7 @@
         <v>30683.406998580474</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <f>'CWX MPT Stats'!A164</f>
         <v>43616</v>
@@ -9206,7 +9315,7 @@
         <v>28733.537006631577</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <f>'CWX MPT Stats'!A165</f>
         <v>43646</v>
@@ -9220,7 +9329,7 @@
         <v>30758.582207326512</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <f>'CWX MPT Stats'!A166</f>
         <v>43677</v>
@@ -9234,7 +9343,7 @@
         <v>31200.679072057381</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <f>'CWX MPT Stats'!A167</f>
         <v>43708</v>
@@ -9248,7 +9357,7 @@
         <v>30706.417692670322</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <f>'CWX MPT Stats'!A168</f>
         <v>43738</v>
@@ -9262,7 +9371,7 @@
         <v>31280.956199402535</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <f>'CWX MPT Stats'!A169</f>
         <v>43769</v>
@@ -9276,7 +9385,7 @@
         <v>31958.470165206531</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <f>'CWX MPT Stats'!A170</f>
         <v>43799</v>
@@ -9290,7 +9399,7 @@
         <v>33118.53192177719</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <f>'CWX MPT Stats'!A171</f>
         <v>43830</v>
@@ -9304,7 +9413,7 @@
         <v>34118.14354444528</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <f>'CWX MPT Stats'!A172</f>
         <v>43861</v>
@@ -9318,7 +9427,7 @@
         <v>34104.764023221091</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <f>'CWX MPT Stats'!A173</f>
         <v>43890</v>
@@ -9332,7 +9441,7 @@
         <v>31297.303163077228</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <f>'CWX MPT Stats'!A174</f>
         <v>43921</v>
@@ -9346,7 +9455,7 @@
         <v>27431.662737163268</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <f>'CWX MPT Stats'!A175</f>
         <v>43951</v>
@@ -9360,7 +9469,7 @@
         <v>30948.238222189277</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <f>'CWX MPT Stats'!A176</f>
         <v>43982</v>
@@ -9374,7 +9483,7 @@
         <v>32422.224153786683</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <f>'CWX MPT Stats'!A177</f>
         <v>44012</v>
@@ -9388,7 +9497,7 @@
         <v>33067.044192241294</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <f>'CWX MPT Stats'!A178</f>
         <v>44043</v>
@@ -9402,7 +9511,7 @@
         <v>34931.535138245934</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <f>'CWX MPT Stats'!A179</f>
         <v>44074</v>
@@ -9416,7 +9525,7 @@
         <v>37442.407934521238</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <f>'CWX MPT Stats'!A180</f>
         <v>44104</v>
@@ -9430,7 +9539,7 @@
         <v>36019.701490884254</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <f>'CWX MPT Stats'!A181</f>
         <v>44135</v>
@@ -9444,7 +9553,7 @@
         <v>35061.842304098653</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <f>'CWX MPT Stats'!A182</f>
         <v>44165</v>
@@ -9458,7 +9567,7 @@
         <v>38899.838660868467</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <f>'CWX MPT Stats'!A183</f>
         <v>44196</v>
@@ -9470,6 +9579,48 @@
       <c r="C183" s="74">
         <f>'CWX MPT Stats'!E183</f>
         <v>40395.481716315146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <f>'CWX MPT Stats'!A184</f>
+        <v>44227</v>
+      </c>
+      <c r="B184" s="74">
+        <f>'CWX MPT Stats'!B184</f>
+        <v>34716</v>
+      </c>
+      <c r="C184" s="74">
+        <f>'CWX MPT Stats'!E184</f>
+        <v>39987.640590749717</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <f>'CWX MPT Stats'!A185</f>
+        <v>44255</v>
+      </c>
+      <c r="B185" s="74">
+        <f>'CWX MPT Stats'!B185</f>
+        <v>35483</v>
+      </c>
+      <c r="C185" s="74">
+        <f>'CWX MPT Stats'!E185</f>
+        <v>41090.279732883471</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <f>'CWX MPT Stats'!A186</f>
+        <v>44286</v>
+      </c>
+      <c r="B186" s="74">
+        <f>'CWX MPT Stats'!B186</f>
+        <v>35799</v>
+      </c>
+      <c r="C186" s="74">
+        <f>'CWX MPT Stats'!E186</f>
+        <v>42889.851367734154</v>
       </c>
     </row>
   </sheetData>
@@ -9481,19 +9632,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ADAC3D-2065-4A40-B09A-D5112F2117C1}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" style="75"/>
-    <col min="3" max="3" width="10.109375" style="75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="75"/>
+    <col min="3" max="3" width="10.140625" style="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -9507,7 +9660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'CWX MPT Stats'!S22</f>
         <v>2006</v>
@@ -9524,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'CWX MPT Stats'!S23</f>
         <v>2007</v>
@@ -9541,7 +9694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'CWX MPT Stats'!S24</f>
         <v>2008</v>
@@ -9558,7 +9711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>'CWX MPT Stats'!S25</f>
         <v>2009</v>
@@ -9575,7 +9728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>'CWX MPT Stats'!S26</f>
         <v>2010</v>
@@ -9592,7 +9745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>'CWX MPT Stats'!S27</f>
         <v>2011</v>
@@ -9609,7 +9762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>'CWX MPT Stats'!S28</f>
         <v>2012</v>
@@ -9626,7 +9779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>'CWX MPT Stats'!S29</f>
         <v>2013</v>
@@ -9643,7 +9796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>'CWX MPT Stats'!S30</f>
         <v>2014</v>
@@ -9660,7 +9813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>'CWX MPT Stats'!S31</f>
         <v>2015</v>
@@ -9677,7 +9830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>'CWX MPT Stats'!S32</f>
         <v>2016</v>
@@ -9694,7 +9847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>'CWX MPT Stats'!S33</f>
         <v>2017</v>
@@ -9711,7 +9864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>'CWX MPT Stats'!S34</f>
         <v>2018</v>
@@ -9728,7 +9881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>'CWX MPT Stats'!S35</f>
         <v>2019</v>
@@ -9745,7 +9898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -9759,6 +9912,22 @@
       </c>
       <c r="D16">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="75">
+        <f>'CWX MPT Stats'!T37*100</f>
+        <v>2.8529563868298524</v>
+      </c>
+      <c r="C17" s="75">
+        <f>'CWX MPT Stats'!U37*100</f>
+        <v>6.1748728952811804</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -9769,20 +9938,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DC47EA-8730-4BC7-90E3-D3DF2DE909D8}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="74"/>
-    <col min="6" max="6" width="15.6640625" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="74"/>
+    <col min="6" max="6" width="15.7109375" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'CWX MPT Stats'!I18</f>
         <v>Share Class/Benchmark</v>
@@ -9807,109 +9978,109 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CWX MPT Stats'!I19</f>
         <v>Class A</v>
       </c>
       <c r="B2" s="74">
         <f>'CWX MPT Stats'!J19</f>
-        <v>3.4907231208372913</v>
+        <v>5.0316864217814894</v>
       </c>
       <c r="C2" s="74">
         <f>'CWX MPT Stats'!K19</f>
-        <v>-1.3054369185098613</v>
+        <v>0.12624338361861831</v>
       </c>
       <c r="D2" s="74">
         <f>'CWX MPT Stats'!L19</f>
-        <v>-4.7038457711555353</v>
+        <v>-4.306637431327287</v>
       </c>
       <c r="E2" s="74">
         <f>'CWX MPT Stats'!M19</f>
-        <v>1.3102170518970446</v>
+        <v>1.4510383265066151</v>
       </c>
       <c r="F2" s="74">
         <f>'CWX MPT Stats'!N19</f>
-        <v>8.64</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CWX MPT Stats'!I20</f>
         <v>Class A w/ Sales Charge</v>
       </c>
       <c r="B3" s="74">
         <f>'CWX MPT Stats'!J20</f>
-        <v>-2.41</v>
+        <v>-1</v>
       </c>
       <c r="C3" s="74">
         <f>'CWX MPT Stats'!K20</f>
-        <v>-3.24</v>
+        <v>-1.82</v>
       </c>
       <c r="D3" s="74">
         <f>'CWX MPT Stats'!L20</f>
-        <v>-5.82</v>
+        <v>-5.44</v>
       </c>
       <c r="E3" s="74">
         <f>'CWX MPT Stats'!M20</f>
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="F3" s="74">
         <f>'CWX MPT Stats'!N20</f>
-        <v>8.23</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CWX MPT Stats'!I21</f>
         <v>S&amp;P 500 TR Index</v>
       </c>
       <c r="B4" s="74">
         <f>'CWX MPT Stats'!J21</f>
-        <v>18.398826898926824</v>
+        <v>56.351628330676377</v>
       </c>
       <c r="C4" s="74">
         <f>'CWX MPT Stats'!K21</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956641</v>
       </c>
       <c r="D4" s="74">
         <f>'CWX MPT Stats'!L21</f>
-        <v>15.216856682869984</v>
+        <v>16.294038412866541</v>
       </c>
       <c r="E4" s="74">
         <f>'CWX MPT Stats'!M21</f>
-        <v>13.884882650942366</v>
+        <v>13.912338106903842</v>
       </c>
       <c r="F4" s="74">
         <f>'CWX MPT Stats'!N21</f>
-        <v>9.7200000000000006</v>
+        <v>9.99</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CWX MPT Stats'!I22</f>
         <v>Class C</v>
       </c>
       <c r="B5" s="74">
         <f>'CWX MPT Stats'!J22</f>
-        <v>2.82</v>
+        <v>4.18</v>
       </c>
       <c r="C5" s="74">
         <f>'CWX MPT Stats'!K22</f>
-        <v>-2.02</v>
+        <v>-0.66</v>
       </c>
       <c r="D5" s="74">
         <f>'CWX MPT Stats'!L22</f>
-        <v>-5.41</v>
+        <v>-5.03</v>
       </c>
       <c r="E5" s="74" t="str">
         <f>'CWX MPT Stats'!M22</f>
@@ -9917,28 +10088,28 @@
       </c>
       <c r="F5" s="74">
         <f>'CWX MPT Stats'!N22</f>
-        <v>-2.5499999999999998</v>
+        <v>-2.14</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'CWX MPT Stats'!I23</f>
         <v>Class I</v>
       </c>
       <c r="B6" s="74">
         <f>'CWX MPT Stats'!J23</f>
-        <v>3.7</v>
+        <v>5.21</v>
       </c>
       <c r="C6" s="74">
         <f>'CWX MPT Stats'!K23</f>
-        <v>-1.04</v>
+        <v>0.33</v>
       </c>
       <c r="D6" s="74">
         <f>'CWX MPT Stats'!L23</f>
-        <v>-4.46</v>
+        <v>-4.08</v>
       </c>
       <c r="E6" s="74" t="str">
         <f>'CWX MPT Stats'!M23</f>
@@ -9946,28 +10117,28 @@
       </c>
       <c r="F6" s="74">
         <f>'CWX MPT Stats'!N23</f>
-        <v>-1.59</v>
+        <v>-1.17</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'CWX MPT Stats'!I24</f>
         <v>S&amp;P 500 TR Index</v>
       </c>
       <c r="B7" s="74">
         <f>'CWX MPT Stats'!J24</f>
-        <v>18.398826898926824</v>
+        <v>56.351628330676377</v>
       </c>
       <c r="C7" s="74">
         <f>'CWX MPT Stats'!K24</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956641</v>
       </c>
       <c r="D7" s="74">
         <f>'CWX MPT Stats'!L24</f>
-        <v>15.216856682869984</v>
+        <v>16.294038412866541</v>
       </c>
       <c r="E7" s="74" t="str">
         <f>'CWX MPT Stats'!M24</f>
@@ -9975,7 +10146,7 @@
       </c>
       <c r="F7" s="74">
         <f>'CWX MPT Stats'!N24</f>
-        <v>14.31</v>
+        <v>14.71</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -9989,19 +10160,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5F3B8-D131-4B80-B2A6-D9219837B693}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="74"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -10015,13 +10188,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="74">
         <f>'CWX MPT Stats'!K9</f>
-        <v>10.711046105266687</v>
+        <v>10.861865122707751</v>
       </c>
       <c r="C2" s="74">
         <f>'CWX MPT Stats'!L9</f>
@@ -10031,13 +10204,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="74">
         <f>'CWX MPT Stats'!K10</f>
-        <v>-0.22148848098305937</v>
+        <v>-0.21879218463146138</v>
       </c>
       <c r="C3" s="74">
         <f>'CWX MPT Stats'!L10</f>
@@ -10047,13 +10220,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="74">
         <f>'CWX MPT Stats'!K11</f>
-        <v>6.284283013141323E-2</v>
+        <v>6.1586381165466358E-2</v>
       </c>
       <c r="C4" s="74">
         <f>'CWX MPT Stats'!L11</f>
@@ -10063,17 +10236,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="74">
         <f>'CWX MPT Stats'!K12*100</f>
-        <v>70.91412742382272</v>
+        <v>70.844686648501366</v>
       </c>
       <c r="C5" s="74">
         <f>'CWX MPT Stats'!L12*100</f>
-        <v>68.69806094182826</v>
+        <v>68.664850136239792</v>
       </c>
       <c r="D5">
         <v>4</v>
